--- a/Separação de Atividades.xlsx
+++ b/Separação de Atividades.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1700134\Desktop\Especificacao\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14355" windowHeight="8505"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14355" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Felipe</t>
   </si>
@@ -40,12 +45,45 @@
   </si>
   <si>
     <t>10. Fronteira Sistêmica</t>
+  </si>
+  <si>
+    <t>01. Declaração do Escopo</t>
+  </si>
+  <si>
+    <t>02. Integrantes do Projeto</t>
+  </si>
+  <si>
+    <t>03. Regras de Comunicação</t>
+  </si>
+  <si>
+    <t>05. Referências</t>
+  </si>
+  <si>
+    <t>07. Declaração do Problema</t>
+  </si>
+  <si>
+    <t>04. Glossário</t>
+  </si>
+  <si>
+    <t>09. Usuários e Outros Stakeholders</t>
+  </si>
+  <si>
+    <t>13. Lista de Características  (Prioridade X Esforço X Risco X Baseline)</t>
+  </si>
+  <si>
+    <t>12. Lista de Características (Descrição das Características)</t>
+  </si>
+  <si>
+    <t>14. Matriz de Rastreabilidade (Necessidades x Características)</t>
+  </si>
+  <si>
+    <t>11. Lista de Restrições</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -83,9 +121,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -96,6 +139,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -103,7 +149,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -141,9 +187,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,9 +222,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,9 +274,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -386,18 +466,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -418,17 +501,50 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -439,7 +555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -451,7 +567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Separação de Atividades.xlsx
+++ b/Separação de Atividades.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1700134\Desktop\Especificacao\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14355" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14355" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Felipe</t>
   </si>
@@ -78,13 +73,19 @@
   </si>
   <si>
     <t>11. Lista de Restrições</t>
+  </si>
+  <si>
+    <t>Participante</t>
+  </si>
+  <si>
+    <t>Artefato</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,16 +101,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -117,17 +145,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -149,7 +207,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -187,9 +245,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,26 +280,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,26 +315,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -466,96 +490,143 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="73.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="43.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -567,7 +638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
